--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/71.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/71.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2247555285097944</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320159927334631</v>
+        <v>-1.316806196869813</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.165371391032668</v>
+        <v>-0.1684155913022126</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1278729759138599</v>
+        <v>-0.1299199633373139</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2485549362201437</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388360233709067</v>
+        <v>-1.387003849032613</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2332694674522861</v>
+        <v>-0.236580856522467</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1329013815389495</v>
+        <v>-0.1335452627470402</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2615351172613005</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.491717038064494</v>
+        <v>-1.491176820270858</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.280142851362819</v>
+        <v>-0.2827388168684546</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1376348574496754</v>
+        <v>-0.1383108597157662</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2524323297971725</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.642999921003998</v>
+        <v>-1.644645395202453</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2915370666642705</v>
+        <v>-0.2929080518216338</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1482479470224908</v>
+        <v>-0.1484421334185816</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2235219774414129</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.7375759961407</v>
+        <v>-1.739227310531518</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2902303236229072</v>
+        <v>-0.2921867880647249</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1669161219128494</v>
+        <v>-0.1653407300227589</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.185295390700502</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.57810662355547</v>
+        <v>-1.579706836263106</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2231542542784707</v>
+        <v>-0.2252640237698337</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1746003550153019</v>
+        <v>-0.1715050530625754</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1509532226618142</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420903245607331</v>
+        <v>-1.420310466082422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1460505746456732</v>
+        <v>-0.1493444431387632</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1534369579375803</v>
+        <v>-0.1518966072016716</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1252486739518568</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151407568987403</v>
+        <v>-1.150737406913676</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.003868171456802274</v>
+        <v>-0.008372419817255609</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.131469074361768</v>
+        <v>-0.1286146803440415</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.105375489564049</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7815438064541389</v>
+        <v>-0.7791872888354122</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08244403148535637</v>
+        <v>0.07785364028753942</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.118531588228226</v>
+        <v>-0.1159443830111358</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0858861479221727</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4081584079256028</v>
+        <v>-0.4030088183089678</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1270382803259807</v>
+        <v>0.1199059454018918</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07422642890960156</v>
+        <v>-0.07251817264323838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06304431850353921</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05984978727854425</v>
+        <v>0.06673099393099695</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1402239746349772</v>
+        <v>0.1335953563022517</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02724399331237119</v>
+        <v>0.02806454033946188</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03418211902450442</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5996908885073083</v>
+        <v>0.6072480974258518</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06020457896463507</v>
+        <v>0.05294083971236429</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1775413437905126</v>
+        <v>0.1801767305946028</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.003112425946795998</v>
       </c>
       <c r="E14" t="n">
-        <v>1.163060664721066</v>
+        <v>1.171388779031609</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08768807230777977</v>
+        <v>-0.09333115817914189</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3062226822827508</v>
+        <v>0.308970492789841</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.05068063737090215</v>
       </c>
       <c r="E15" t="n">
-        <v>1.811089869438074</v>
+        <v>1.819012090379345</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2575909485506432</v>
+        <v>-0.2607972141582787</v>
       </c>
       <c r="G15" t="n">
-        <v>0.488076052149702</v>
+        <v>0.4907099789057013</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1068939095703803</v>
       </c>
       <c r="E16" t="n">
-        <v>2.437708928949997</v>
+        <v>2.447897144528357</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4946764776485796</v>
+        <v>-0.4972972639717607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6052492915893978</v>
+        <v>0.6085796612847606</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1701394092376102</v>
       </c>
       <c r="E17" t="n">
-        <v>3.048514207589287</v>
+        <v>3.059562391493194</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6284125026315437</v>
+        <v>-0.6320655429549972</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7919938225608931</v>
+        <v>0.7951665070624377</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2391363308147298</v>
       </c>
       <c r="E18" t="n">
-        <v>3.647116404284763</v>
+        <v>3.661407354998577</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7510726027968744</v>
+        <v>-0.7552731611544187</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9349047897471274</v>
+        <v>0.9364947821181271</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3107679450609342</v>
       </c>
       <c r="E19" t="n">
-        <v>4.181358221084892</v>
+        <v>4.195465205739252</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9094352589291955</v>
+        <v>-0.9129028731451037</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087130863753359</v>
+        <v>1.089044986800541</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.382676237277341</v>
       </c>
       <c r="E20" t="n">
-        <v>4.724628975279201</v>
+        <v>4.738868824309833</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.123831640694411</v>
+        <v>-1.128509634777682</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246378309028771</v>
+        <v>1.248055904285225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4534495746925935</v>
       </c>
       <c r="E21" t="n">
-        <v>5.183593632608259</v>
+        <v>5.199503776654891</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.280140009162823</v>
+        <v>-1.285348000703095</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422309723838997</v>
+        <v>1.424312909819723</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5202892103726316</v>
       </c>
       <c r="E22" t="n">
-        <v>5.588491249082878</v>
+        <v>5.603211453935419</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.487371934945949</v>
+        <v>-1.492283536723766</v>
       </c>
       <c r="G22" t="n">
-        <v>1.538519331538693</v>
+        <v>1.539491723567238</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5797456880000127</v>
       </c>
       <c r="E23" t="n">
-        <v>5.859715622642441</v>
+        <v>5.87594113707671</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.666426392622629</v>
+        <v>-1.672561514700627</v>
       </c>
       <c r="G23" t="n">
-        <v>1.698940655479195</v>
+        <v>1.700746734967649</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6288966616689956</v>
       </c>
       <c r="E24" t="n">
-        <v>6.165119722010178</v>
+        <v>6.180203478837355</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.839561815338764</v>
+        <v>-1.844546419521126</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813899001964982</v>
+        <v>1.814075667783982</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.666176866410185</v>
       </c>
       <c r="E25" t="n">
-        <v>6.378666355786484</v>
+        <v>6.391430096197208</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.974976165602228</v>
+        <v>-1.979627148795817</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917156523050227</v>
+        <v>1.915949063279046</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6915058600024658</v>
       </c>
       <c r="E26" t="n">
-        <v>6.479063642661639</v>
+        <v>6.490986395372</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.082299190596608</v>
+        <v>-2.085296669327243</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981023406690847</v>
+        <v>1.979989692642483</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7059587180989694</v>
       </c>
       <c r="E27" t="n">
-        <v>6.532774431781897</v>
+        <v>6.544777487137257</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.170816066156039</v>
+        <v>-2.173203244784674</v>
       </c>
       <c r="G27" t="n">
-        <v>2.063495683153915</v>
+        <v>2.061682303425007</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7107185246428032</v>
       </c>
       <c r="E28" t="n">
-        <v>6.644088498232776</v>
+        <v>6.655002357712319</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.230986838054522</v>
+        <v>-2.232248319605068</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093255843390907</v>
+        <v>2.091994361840362</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7067714605412836</v>
       </c>
       <c r="E29" t="n">
-        <v>6.581516677248793</v>
+        <v>6.591805636145427</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.291670816856961</v>
+        <v>-2.292451212561551</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140029944031258</v>
+        <v>2.137423758188986</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.6944110071202789</v>
       </c>
       <c r="E30" t="n">
-        <v>6.546529544846348</v>
+        <v>6.559116619438072</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.327433964819724</v>
+        <v>-2.32726751933736</v>
       </c>
       <c r="G30" t="n">
-        <v>2.124727179990444</v>
+        <v>2.121799783568172</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.6738542741671426</v>
       </c>
       <c r="E31" t="n">
-        <v>6.458024349671645</v>
+        <v>6.470060986133095</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.309675399890001</v>
+        <v>-2.308812511468274</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10821841622654</v>
+        <v>2.103649925750086</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.646190680639888</v>
       </c>
       <c r="E32" t="n">
-        <v>6.283802651175873</v>
+        <v>6.294293096709052</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.315268844126273</v>
+        <v>-2.314722056116227</v>
       </c>
       <c r="G32" t="n">
-        <v>2.045001253986375</v>
+        <v>2.041695705108558</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6137351405040474</v>
       </c>
       <c r="E33" t="n">
-        <v>6.098693374066196</v>
+        <v>6.111776865008828</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.339252324091584</v>
+        <v>-2.336873905751494</v>
       </c>
       <c r="G33" t="n">
-        <v>1.978742811572847</v>
+        <v>1.976332272174757</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5785686623516066</v>
       </c>
       <c r="E34" t="n">
-        <v>5.860502588563441</v>
+        <v>5.871882203383984</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.381156434324709</v>
+        <v>-2.381563057718028</v>
       </c>
       <c r="G34" t="n">
-        <v>1.895851501307688</v>
+        <v>1.892597054113052</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5427780640944252</v>
       </c>
       <c r="E35" t="n">
-        <v>5.635415734676593</v>
+        <v>5.646849371276499</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369135858392258</v>
+        <v>-2.369248282095258</v>
       </c>
       <c r="G35" t="n">
-        <v>1.827546071470706</v>
+        <v>1.824031735715889</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5071096058044861</v>
       </c>
       <c r="E36" t="n">
-        <v>5.446123419786462</v>
+        <v>5.456551083251732</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.329448831185178</v>
+        <v>-2.330292738981723</v>
       </c>
       <c r="G36" t="n">
-        <v>1.740219135105366</v>
+        <v>1.736110559777549</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4715228976825531</v>
       </c>
       <c r="E37" t="n">
-        <v>5.08470019526674</v>
+        <v>5.093807975257829</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270180369006876</v>
+        <v>-2.269848208066194</v>
       </c>
       <c r="G37" t="n">
-        <v>1.652284818734208</v>
+        <v>1.649647971882026</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4355325550737035</v>
       </c>
       <c r="E38" t="n">
-        <v>4.808954052769633</v>
+        <v>4.820086919462812</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.164249499867177</v>
+        <v>-2.165589824014631</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551153127669326</v>
+        <v>1.550856737906871</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3997292372136182</v>
       </c>
       <c r="E39" t="n">
-        <v>4.515018631155984</v>
+        <v>4.526605572805436</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146287988252818</v>
+        <v>-2.148132759015681</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438853528757083</v>
+        <v>1.438841848372356</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3648530015062507</v>
       </c>
       <c r="E40" t="n">
-        <v>4.247047244742966</v>
+        <v>4.257524549843327</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117562272088235</v>
+        <v>-2.119063931549734</v>
       </c>
       <c r="G40" t="n">
-        <v>1.38446089717837</v>
+        <v>1.382345287494644</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3311839474711057</v>
       </c>
       <c r="E41" t="n">
-        <v>3.953783445251135</v>
+        <v>3.962180181821951</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027759094160714</v>
+        <v>-2.029324995738213</v>
       </c>
       <c r="G41" t="n">
-        <v>1.263917866744857</v>
+        <v>1.26221983081513</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2980893934116252</v>
       </c>
       <c r="E42" t="n">
-        <v>3.700016866714567</v>
+        <v>3.706550581921383</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933265511741148</v>
+        <v>-1.934267834755557</v>
       </c>
       <c r="G42" t="n">
-        <v>1.158915588190977</v>
+        <v>1.157436559474886</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2648897641965872</v>
       </c>
       <c r="E43" t="n">
-        <v>3.428672769211549</v>
+        <v>3.436081053224819</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865352104816575</v>
+        <v>-1.867001959159302</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065530912296456</v>
+        <v>1.064546839883184</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2309758358329825</v>
       </c>
       <c r="E44" t="n">
-        <v>3.159918797021803</v>
+        <v>3.16762639089371</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825375258063449</v>
+        <v>-1.826387071390449</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9311845872114921</v>
+        <v>0.930850236198674</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1965534553241969</v>
       </c>
       <c r="E45" t="n">
-        <v>2.902119565658145</v>
+        <v>2.909634433182052</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743227842300608</v>
+        <v>-1.74289349128779</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8114694040455243</v>
+        <v>0.8098837918187974</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1622459227643741</v>
       </c>
       <c r="E46" t="n">
-        <v>2.654226760591302</v>
+        <v>2.660186676898392</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.695501790304984</v>
+        <v>-1.694069483127803</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7700916411491717</v>
+        <v>0.7691134089282629</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1286431076587397</v>
       </c>
       <c r="E47" t="n">
-        <v>2.353764924011292</v>
+        <v>2.359967208301472</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.648586064999815</v>
+        <v>-1.647305602824088</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6636044936868367</v>
+        <v>0.6620305618448371</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.09646735432547712</v>
       </c>
       <c r="E48" t="n">
-        <v>2.162757052614343</v>
+        <v>2.168125649444614</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.614409259287824</v>
+        <v>-1.613201799516643</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6012838009744897</v>
+        <v>0.5998047722583992</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.06641289268449625</v>
       </c>
       <c r="E49" t="n">
-        <v>1.965043180335851</v>
+        <v>1.97085855188194</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566375137145019</v>
+        <v>-1.564453713857383</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5403618343332334</v>
+        <v>0.5387397209042338</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.03821334231511155</v>
       </c>
       <c r="E50" t="n">
-        <v>1.853879498838335</v>
+        <v>1.857890250944061</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.493552318514766</v>
+        <v>-1.491274643492948</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4790923762463408</v>
+        <v>0.4775432652218866</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.01136329653453224</v>
       </c>
       <c r="E51" t="n">
-        <v>1.67679172594011</v>
+        <v>1.681377736993654</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.437090798791236</v>
+        <v>-1.433630484815782</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4206130700611747</v>
+        <v>0.4195691356761749</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.01509894828864675</v>
       </c>
       <c r="E52" t="n">
-        <v>1.558505929855142</v>
+        <v>1.562820371963777</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.397679720673337</v>
+        <v>-1.393492302748611</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3398592702011054</v>
+        <v>0.3386138491795603</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04211508035349481</v>
       </c>
       <c r="E53" t="n">
-        <v>1.382511732977007</v>
+        <v>1.385347146369552</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.359581225789166</v>
+        <v>-1.356153032871712</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2727116585002144</v>
+        <v>0.2720955182058509</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07021976487992466</v>
       </c>
       <c r="E54" t="n">
-        <v>1.328800943856749</v>
+        <v>1.333674584384202</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.340809387484352</v>
+        <v>-1.33727023091199</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2221750139295916</v>
+        <v>0.2193658814026832</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0990916173585501</v>
       </c>
       <c r="E55" t="n">
-        <v>1.207281141250418</v>
+        <v>1.210734154985417</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304103778478908</v>
+        <v>-1.301198282777999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1638592331306072</v>
+        <v>0.1643176882311526</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1280325003184285</v>
       </c>
       <c r="E56" t="n">
-        <v>1.176877099805335</v>
+        <v>1.180924353113334</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.25193626019074</v>
+        <v>-1.248175176308559</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1028511236519872</v>
+        <v>0.1043564332337141</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1569100773961051</v>
       </c>
       <c r="E57" t="n">
-        <v>1.085351065130542</v>
+        <v>1.090172143926722</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.242733577073742</v>
+        <v>-1.239908384017834</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05922196659945352</v>
+        <v>0.06104702671308938</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1858029238743167</v>
       </c>
       <c r="E58" t="n">
-        <v>1.031174520669284</v>
+        <v>1.036665761539191</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205173839935116</v>
+        <v>-1.20246399067839</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01812700111261663</v>
+        <v>-0.01631216133561712</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2146171632629453</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9227849305444944</v>
+        <v>0.9277198930917657</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.121596307067229</v>
+        <v>-1.118328719439776</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0946933830479597</v>
+        <v>-0.09262011475886935</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2432369563903635</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8967741738049558</v>
+        <v>0.9043576635891357</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102218548804689</v>
+        <v>-1.099586082096781</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1219802218189524</v>
+        <v>-0.1193827962652258</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2717135456190544</v>
       </c>
       <c r="E61" t="n">
-        <v>0.764219327727537</v>
+        <v>0.7711968975539896</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.072938744389606</v>
+        <v>-1.069414188298152</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1513885104660354</v>
+        <v>-0.1478391335570363</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.300100457332472</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7250622979774566</v>
+        <v>0.7316339744346366</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.067662130589062</v>
+        <v>-1.064112753680063</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2256874377161973</v>
+        <v>-0.2235659878401069</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3285220313704943</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6337392099872993</v>
+        <v>0.6406525376977519</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.102243369622235</v>
+        <v>-1.099285312190054</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.241235489836284</v>
+        <v>-0.2384613984635575</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3568227941589899</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5420554901186875</v>
+        <v>0.5519195750208666</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.088651781943966</v>
+        <v>-1.085279070853966</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2926510833576338</v>
+        <v>-0.2887761157243621</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3838765945183519</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4561710812671651</v>
+        <v>0.4674703934427075</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.056183232498338</v>
+        <v>-1.052905424534248</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3259197391570794</v>
+        <v>-0.3209935368983535</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4077897022352998</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4079967945076326</v>
+        <v>0.4185383417239934</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.071589659953607</v>
+        <v>-1.068872510456425</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3543205946214354</v>
+        <v>-0.3499798716471639</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4282587268028956</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3782015931164588</v>
+        <v>0.3912004012698189</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.090324997056147</v>
+        <v>-1.08718151351642</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3889646157225171</v>
+        <v>-0.3827798520094278</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4465353694591652</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2985618099497529</v>
+        <v>0.3119489908952948</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.105017460994961</v>
+        <v>-1.102694524482325</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3985483713912418</v>
+        <v>-0.3936323894691521</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4632399610799979</v>
       </c>
       <c r="E69" t="n">
-        <v>0.193382865576872</v>
+        <v>0.2079950268706863</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.145852086001496</v>
+        <v>-1.144346776419769</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4225019203706898</v>
+        <v>-0.4163448975713279</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.477854772496802</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1300839406436163</v>
+        <v>0.1443398502032488</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.19386868756721</v>
+        <v>-1.192364838033574</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4389347616338672</v>
+        <v>-0.4336231066791414</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4893485665997165</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08076059603653864</v>
+        <v>0.09285855451780811</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.278788004630642</v>
+        <v>-1.279440646127278</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4988186340824876</v>
+        <v>-0.4947129788508523</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4961204483339308</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.006858349946983289</v>
+        <v>0.006577012585558558</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.315124221469087</v>
+        <v>-1.315169482959905</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4927243933510346</v>
+        <v>-0.4884099512423994</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4967950938252124</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02024407084443424</v>
+        <v>-0.007100717930074133</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305350659548544</v>
+        <v>-1.305644129214816</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5427105997913848</v>
+        <v>-0.5384282787407496</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4907365480901916</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01019793185101213</v>
+        <v>0.02263900163364515</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.345712228973624</v>
+        <v>-1.345967737389533</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5270092426217527</v>
+        <v>-0.5240643256223899</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4778015618342777</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01515771521582898</v>
+        <v>0.02842517221791633</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395318822910338</v>
+        <v>-1.396406558738065</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4783180988380385</v>
+        <v>-0.4745803757253123</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.458031728875171</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06743327706272403</v>
+        <v>0.07917206371362998</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.341743818262534</v>
+        <v>-1.342529324135443</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4888917671123993</v>
+        <v>-0.4849408769784004</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4313871823891119</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1805884641562391</v>
+        <v>0.1924659553757814</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.339866196417625</v>
+        <v>-1.34083712839808</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4343297699551412</v>
+        <v>-0.4308081339598694</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3980161540894402</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2665400352199433</v>
+        <v>0.2761851129084862</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.305769693350634</v>
+        <v>-1.307054535670634</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4351225760685046</v>
+        <v>-0.432717876862778</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.358478623701175</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3595144376009183</v>
+        <v>0.3679024138831888</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.322989500534812</v>
+        <v>-1.32035119363454</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4032103049455132</v>
+        <v>-0.4007136227100593</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3132644498654949</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4633895590286177</v>
+        <v>0.4698210708690705</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337718465675899</v>
+        <v>-1.337187008170808</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3446258752978017</v>
+        <v>-0.343196488216802</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2636456319835436</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5632583084948636</v>
+        <v>0.5677260556530442</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.285596208878549</v>
+        <v>-1.285765574457094</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2929138920139974</v>
+        <v>-0.2918290762824522</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2107336184830277</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7003947854815541</v>
+        <v>0.702618438724008</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.221546819226566</v>
+        <v>-1.21973781964193</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2596437761664609</v>
+        <v>-0.2586319628394612</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1552925804157586</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8566870934209666</v>
+        <v>0.8576653256418755</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164558222142218</v>
+        <v>-1.1643362948324</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2162803478664725</v>
+        <v>-0.2153736580020182</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09853435206165402</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026547628269194</v>
+        <v>1.02618845643883</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074060061323424</v>
+        <v>-1.072937284341515</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1651129625205772</v>
+        <v>-0.1663452431093041</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04259808389415238</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122268381109168</v>
+        <v>1.119508890217351</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.004129597961261</v>
+        <v>-1.001635835821989</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1308908953177682</v>
+        <v>-0.1317070622005861</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.009382012748396415</v>
       </c>
       <c r="E86" t="n">
-        <v>1.288614580202578</v>
+        <v>1.283523392509579</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9278771263654633</v>
+        <v>-0.9254446862460094</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0457496509445183</v>
+        <v>-0.04710749566906339</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05574274743499114</v>
       </c>
       <c r="E87" t="n">
-        <v>1.385939925894461</v>
+        <v>1.382045977636007</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8277324278100356</v>
+        <v>-0.8251875639875818</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01641290465388982</v>
+        <v>-0.01788609317761669</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.09613797283925203</v>
       </c>
       <c r="E88" t="n">
-        <v>1.473484409425347</v>
+        <v>1.469145146499166</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.699442382206161</v>
+        <v>-0.6981604599823431</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03502312954073274</v>
+        <v>0.03314696774391506</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1305195132846184</v>
       </c>
       <c r="E89" t="n">
-        <v>1.571107604927775</v>
+        <v>1.566864705175594</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5680774753228326</v>
+        <v>-0.5655384516927424</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08027293997417513</v>
+        <v>0.07887567395117551</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1583802826734073</v>
       </c>
       <c r="E90" t="n">
-        <v>1.632238358446031</v>
+        <v>1.626373345264851</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4388895001430491</v>
+        <v>-0.4375900573421403</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09380612572880787</v>
+        <v>0.09159999306344482</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1773747678759683</v>
       </c>
       <c r="E91" t="n">
-        <v>1.676923130268292</v>
+        <v>1.669494405581748</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2799778659285463</v>
+        <v>-0.2771804137863653</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1083730255318039</v>
+        <v>0.1058164813246228</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.185083500093141</v>
       </c>
       <c r="E92" t="n">
-        <v>1.70678987401592</v>
+        <v>1.69928668687674</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1196762659314985</v>
+        <v>-0.1186805131334987</v>
       </c>
       <c r="G92" t="n">
-        <v>0.103782634333987</v>
+        <v>0.1035869878898052</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1798744260408039</v>
       </c>
       <c r="E93" t="n">
-        <v>1.703059451143649</v>
+        <v>1.695106569192469</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03921930775400434</v>
+        <v>0.03863236842145904</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09960397669780631</v>
+        <v>0.09909734001026099</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.162262201405233</v>
       </c>
       <c r="E94" t="n">
-        <v>1.651746060988662</v>
+        <v>1.643282162205665</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1501318609798837</v>
+        <v>0.1481461955762478</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06035350386990775</v>
+        <v>0.06016661771427144</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1371417578940456</v>
       </c>
       <c r="E95" t="n">
-        <v>1.562205691717504</v>
+        <v>1.552433589845053</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2353183668439517</v>
+        <v>0.2328976071092251</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01168572085564809</v>
+        <v>0.01135867008328455</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1100679992320069</v>
       </c>
       <c r="E96" t="n">
-        <v>1.438751325390719</v>
+        <v>1.429446438907358</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3148179853939304</v>
+        <v>0.3120468141173856</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02889485578306828</v>
+        <v>-0.0283283571237957</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.08461714503739384</v>
       </c>
       <c r="E97" t="n">
-        <v>1.28461696852967</v>
+        <v>1.275189438006672</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3639748845186444</v>
+        <v>0.3622505677232812</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04965673963578998</v>
+        <v>-0.04879969140642657</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.06078396219070684</v>
       </c>
       <c r="E98" t="n">
-        <v>1.151037168692433</v>
+        <v>1.143034645106163</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3830051513355484</v>
+        <v>0.3817290693040942</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08710259302332538</v>
+        <v>-0.08595061507959842</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03829026440398496</v>
       </c>
       <c r="E99" t="n">
-        <v>0.996143586824111</v>
+        <v>0.990147169314749</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3779679854219134</v>
+        <v>0.3769269711330955</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1274291212942237</v>
+        <v>-0.126335545274133</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.01465818680565785</v>
       </c>
       <c r="E100" t="n">
-        <v>0.887130556164504</v>
+        <v>0.8825182642453233</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3469580240191035</v>
+        <v>0.3465141693994673</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1420617232613106</v>
+        <v>-0.1403826679567656</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.008084023451608847</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7456475160111783</v>
+        <v>0.7429362067063608</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3477537502286487</v>
+        <v>0.3479464765766487</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1343439090527672</v>
+        <v>-0.1332970545715857</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.03297592520442924</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6326164330053905</v>
+        <v>0.6291604991742096</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3050969852046602</v>
+        <v>0.3053919149190238</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946292947263874</v>
+        <v>-0.1951300912215691</v>
       </c>
     </row>
   </sheetData>
